--- a/src/test/resources/script/db/init-data/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/test/resources/script/db/init-data/choerodon-iam-menu-user-role-label.xlsx
@@ -3223,7 +3223,7 @@
     <t>TB</t>
   </si>
   <si>
-    <t>poll</t>
+    <t>devops_chart</t>
   </si>
   <si>
     <t>/charts</t>
@@ -7351,7 +7351,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7380,12 +7380,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7451,22 +7445,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7480,8 +7461,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7495,17 +7484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7518,32 +7498,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7558,21 +7514,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -7580,7 +7521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7596,7 +7537,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7623,12 +7617,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -7684,25 +7672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7720,7 +7702,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7732,61 +7774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7810,13 +7798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7828,7 +7816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7840,31 +7840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7971,50 +7959,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8043,21 +7998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -8068,167 +8008,215 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8238,46 +8226,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8290,7 +8277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8696,7 +8683,7 @@
     <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -8710,79 +8697,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -8790,56 +8777,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8849,64 +8836,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8931,8 +8918,8 @@
   <sheetPr/>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F151" workbookViewId="0">
-      <selection activeCell="O172" sqref="O172"/>
+    <sheetView tabSelected="1" topLeftCell="F92" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/test/resources/script/db/init-data/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/test/resources/script/db/init-data/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/choerodon-iam/src/test/resources/script/db/init-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9C788-A572-6A47-835B-9EE2DB664E9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="1864">
   <si>
     <r>
       <rPr>
@@ -7340,18 +7346,19 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>iam_menu_permission-313</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-role-member.deleteUserRoles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7362,25 +7369,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -7445,157 +7452,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -7638,8 +7494,27 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7670,194 +7545,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7958,254 +7647,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8227,20 +7674,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8274,9 +7709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8284,59 +7716,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8409,6 +7810,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8666,271 +8070,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="54">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:8" ht="54">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:8" ht="72">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="35" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="36">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="3:5" ht="54">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F92" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView topLeftCell="A15" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="2.44444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8944,7 +8345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9032,7 +8433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9079,7 +8480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9129,7 +8530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>88</v>
       </c>
@@ -9186,7 +8587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -9237,7 +8638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -9285,7 +8686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -9336,7 +8737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -9393,7 +8794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -9441,7 +8842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -19210,27 +18611,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297:G297"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="13.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19244,7 +18645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19255,7 +18656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -19278,7 +18679,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>954</v>
       </c>
@@ -19290,7 +18691,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>956</v>
       </c>
@@ -19302,7 +18703,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>958</v>
       </c>
@@ -19314,7 +18715,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>960</v>
       </c>
@@ -19326,7 +18727,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="7" t="s">
         <v>962</v>
       </c>
@@ -19339,7 +18740,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="7" t="s">
         <v>964</v>
       </c>
@@ -19352,7 +18753,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>966</v>
       </c>
@@ -19364,7 +18765,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>968</v>
       </c>
@@ -19376,7 +18777,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>970</v>
       </c>
@@ -22760,29 +22161,40 @@
         <v>1473</v>
       </c>
     </row>
+    <row r="298" spans="5:7">
+      <c r="E298" s="42" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F298" t="str">
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1863</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G293" sqref="G293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -22796,7 +22208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -22854,7 +22266,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1486</v>
       </c>
@@ -22886,7 +22298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1491</v>
       </c>
@@ -22918,7 +22330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1494</v>
       </c>
@@ -22944,7 +22356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1497</v>
       </c>
@@ -22970,7 +22382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1499</v>
       </c>
@@ -23002,7 +22414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1502</v>
       </c>
@@ -23031,7 +22443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1505</v>
       </c>
@@ -23060,7 +22472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1508</v>
       </c>
@@ -23089,7 +22501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1511</v>
       </c>
@@ -23118,7 +22530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1514</v>
       </c>
@@ -23150,7 +22562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1517</v>
       </c>
@@ -23182,7 +22594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1520</v>
       </c>
@@ -23214,7 +22626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1523</v>
       </c>
@@ -23240,7 +22652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1525</v>
       </c>
@@ -23272,7 +22684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1528</v>
       </c>
@@ -23304,7 +22716,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1531</v>
       </c>
@@ -23336,7 +22748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1534</v>
       </c>
@@ -23362,7 +22774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1536</v>
       </c>
@@ -23391,7 +22803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1539</v>
       </c>
@@ -23420,7 +22832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -23449,7 +22861,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1549</v>
       </c>
@@ -23468,7 +22880,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1549</v>
       </c>
@@ -23487,7 +22899,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1549</v>
       </c>
@@ -23506,7 +22918,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1549</v>
       </c>
@@ -28656,28 +28068,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -28691,7 +28102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28779,7 +28190,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1568</v>
       </c>
@@ -28838,7 +28249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1573</v>
       </c>
@@ -28897,7 +28308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1578</v>
       </c>
@@ -28960,7 +28371,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1585</v>
       </c>
@@ -29023,7 +28434,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1593</v>
       </c>
@@ -29086,7 +28497,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1601</v>
       </c>
@@ -29149,7 +28560,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="5" t="s">
         <v>1609</v>
       </c>
@@ -29206,7 +28617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -33793,23 +33204,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -33823,7 +33231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -33881,7 +33289,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1486</v>
       </c>
@@ -33913,7 +33321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1491</v>
       </c>
@@ -33942,7 +33350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1494</v>
       </c>
@@ -33974,7 +33382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1497</v>
       </c>
@@ -34006,7 +33414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1499</v>
       </c>
@@ -34038,7 +33446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1502</v>
       </c>
@@ -34070,7 +33478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1505</v>
       </c>
@@ -34102,7 +33510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1508</v>
       </c>
@@ -34134,7 +33542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1511</v>
       </c>
@@ -34166,7 +33574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1514</v>
       </c>
@@ -34198,7 +33606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1517</v>
       </c>
@@ -34230,7 +33638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1520</v>
       </c>
@@ -34262,7 +33670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -34291,7 +33699,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1549</v>
       </c>
@@ -34310,7 +33718,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1549</v>
       </c>
@@ -34329,7 +33737,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1549</v>
       </c>
@@ -34348,7 +33756,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1549</v>
       </c>
@@ -34367,7 +33775,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1549</v>
       </c>
@@ -34386,7 +33794,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1549</v>
       </c>
@@ -34405,7 +33813,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1549</v>
       </c>
@@ -34424,7 +33832,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1549</v>
       </c>
@@ -34443,7 +33851,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1549</v>
       </c>
@@ -34462,7 +33870,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1549</v>
       </c>
@@ -34481,7 +33889,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1549</v>
       </c>
@@ -34558,8 +33966,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>